--- a/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elmouctarsow/Desktop/Projet4ameliore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B54E02-BA4D-E94A-9310-745DF464DF03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B6048D-7554-7744-8B69-EBCBFD4AA6DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>SEO</t>
   </si>
   <si>
-    <t>Le code source de chaque page contient une métadonnée qui en décrit le contenu</t>
-  </si>
-  <si>
     <t>Sans ces données, les outils de recherche extraient mal le contenu des pages</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t xml:space="preserve">Rédiger un contenu permettant aux outils de recherche et d'améliorer les résultats de recherche. </t>
   </si>
   <si>
-    <t>Le titre de chaque page permet d'identifier le site</t>
-  </si>
-  <si>
     <t>Permettre aux utilisateurs d'identifier immédiatement le site dans les onglets, les favoris, dans la fenêtre du navigateur, ou encore dans les lecteurs d'écran,</t>
   </si>
   <si>
@@ -91,15 +85,9 @@
     <t>Donner un titre à l'ensemble des pages</t>
   </si>
   <si>
-    <t>Le titre de chaque page permet d'identifier son contenu.</t>
-  </si>
-  <si>
     <t>Meme éléments que celui d'en haut.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'adresse complète et le numéro de téléphone des sociétés et organisations sont diponibles depuis toutes les pages du site. </t>
-  </si>
-  <si>
     <t>Donner aux utilisateurs qui le souhaitent la possibilité d'accéder sans difficulté aux moyens de contact téléphoniques et postaux</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>Manque d'accessibilité du site sans une adresse complète</t>
   </si>
   <si>
-    <t>Chaque image décorative est dotée d'une alternative textuelle appropriée</t>
-  </si>
-  <si>
     <t>Fournir aux robots d'indexation uniquement des informations pertinentes</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t>Le non renseignement de cette alternative textuelle freine l'accessibilité du site</t>
   </si>
   <si>
-    <t>Le contenu de chaque page est organisé selon une structure de titres et sous-titres hiérarchisée.</t>
-  </si>
-  <si>
     <t>Permettre aux machines et aux outils d'indexation d'extraire le plan de chaque page</t>
   </si>
   <si>
@@ -139,9 +121,6 @@
     <t xml:space="preserve">Hiérarchiser les titres, de H1 on arrive à H2 ainsi de suite </t>
   </si>
   <si>
-    <t>Chaque lien est doté d'un intitulé dans le code source</t>
-  </si>
-  <si>
     <t>Éviter aux utilisateurs d'avoir uniquement une URL peu compréhensible en guise de libellé,</t>
   </si>
   <si>
@@ -157,9 +136,6 @@
     <t>Doté de chaque lien un intitulé dans le code source</t>
   </si>
   <si>
-    <t>Les liens sont visuellement différenciés du reste du contenu</t>
-  </si>
-  <si>
     <t>Améliorer la visibilité et l'affordance des liens</t>
   </si>
   <si>
@@ -184,9 +160,6 @@
     <t xml:space="preserve">Veuillez à ce que chaque page ait un seul identifiant </t>
   </si>
   <si>
-    <t>Optimisation des images</t>
-  </si>
-  <si>
     <t>Mettre sur le format Jpeg au lieu de Bmp</t>
   </si>
   <si>
@@ -229,9 +202,6 @@
     <t xml:space="preserve">Créer un fichier sitemap.xml contenant la liste des pages du site à la racine du site. À defaut de respecter le format XML, une simple liste d'URL est acceptée par les moteurs. </t>
   </si>
   <si>
-    <t xml:space="preserve">Les scripts du site sont minifiés </t>
-  </si>
-  <si>
     <t>Accélère la viteese d'affichage des pages</t>
   </si>
   <si>
@@ -250,9 +220,6 @@
     <t>ou identifier la liste des scripts Javascript non minifiés à l'aide d'outil de développement (navigateurs, outils en ligne, etc..)</t>
   </si>
   <si>
-    <t>Les feuilles de style du site sont minifiés</t>
-  </si>
-  <si>
     <t>Minimiser la quantité de données à télécharger par l'utilisateur</t>
   </si>
   <si>
@@ -280,7 +247,40 @@
     <t>Renseigner la balise robot à la page HTML index meta name="robot"</t>
   </si>
   <si>
-    <t>La racine du site contient des instructions pour les robots d'indexation</t>
+    <t>Le code source de la page principale (index) contient une métadonnée répétitive qui ne décrit pas son contenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le titre de la page2 ne permet pas d'identifier le site, il doit être reformulé. </t>
+  </si>
+  <si>
+    <t>Le titre des pages ne permet pas d'identifier son contenu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'adresse complète n'existe pas pour toutes les pages du site, et le numéro de téléphone des sociétés et organisations n'existent pas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images décoratives ne sont pas dotées d'une alternative textuelle appropriée.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contenu des pages ne respectent la hiérarchie selon une structure de titres et sous-titres. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La racine du site ne contient pas des instructions pour les robots d'indexation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les liens ne sont pas dotés d'un intitulé dans le code source. </t>
+  </si>
+  <si>
+    <t>Visuellement les liens ne sont pas différenciés du reste du contenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images ne sont pas optimisées, elles sont lourdes, avec une grande taille. Elles empêchent le site de se charger vite. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les feuilles de style du site sont à minifier, elles comportent beaucoup de lignes. Les navigateurs prennent du temps à les lire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les scripts du site doivent être minifiées, ils comportent beacoup, de lignes, des commentaires. Ce qui ralenti le chargement des pages.  </t>
   </si>
 </sst>
 </file>
@@ -794,14 +794,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="2" max="2" width="77.7109375" customWidth="1"/>
     <col min="3" max="5" width="45.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
@@ -852,26 +852,26 @@
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -881,7 +881,7 @@
       <c r="A4" s="14"/>
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -890,26 +890,26 @@
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -919,7 +919,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -929,7 +929,7 @@
       <c r="A8" s="14"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -938,40 +938,40 @@
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -980,26 +980,26 @@
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="6" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
@@ -1008,54 +1008,54 @@
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="9" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1065,7 +1065,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1075,7 +1075,7 @@
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -1087,26 +1087,26 @@
         <v>7</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1116,7 +1116,7 @@
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1125,26 +1125,26 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="6" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1153,26 +1153,26 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1182,7 +1182,7 @@
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -1194,48 +1194,48 @@
         <v>8</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="6"/>
       <c r="C31" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1249,26 +1249,26 @@
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="6"/>
       <c r="C35" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1277,26 +1277,26 @@
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1305,30 +1305,30 @@
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F39" s="15"/>
     </row>
@@ -1336,7 +1336,7 @@
       <c r="A40" s="14"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1346,7 +1346,7 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>

--- a/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elmouctarsow/Desktop/Projet4ameliore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B6048D-7554-7744-8B69-EBCBFD4AA6DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0F65FC-AEBF-F646-84B5-DCBC7A3ABD59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>Categorie</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Les fichiers scripts et feuilles de style contiennent des tonnes de codes qui alourdissent le chargement du site. Supprimer les espaces non nécessaires et les commentaires dans les fichiers CSS en recourant à des outils dédiés.</t>
   </si>
   <si>
-    <t>Opquast</t>
-  </si>
-  <si>
     <t>Openclassrooms</t>
   </si>
   <si>
@@ -281,13 +278,19 @@
   </si>
   <si>
     <t xml:space="preserve">Les scripts du site doivent être minifiées, ils comportent beacoup, de lignes, des commentaires. Ce qui ralenti le chargement des pages.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://checklists.opquast.com/fr/qualiteweb/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://checklists.opquast.com/fr/qualiteweb/ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -317,6 +320,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -543,10 +552,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,7 +575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -577,8 +586,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -794,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -803,7 +816,7 @@
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="77.7109375" customWidth="1"/>
     <col min="3" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -852,19 +865,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>69</v>
+      <c r="F2" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -890,7 +903,7 @@
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -901,8 +914,8 @@
       <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>69</v>
+      <c r="F5" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -938,21 +951,21 @@
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="15" t="s">
-        <v>69</v>
+      <c r="F9" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
@@ -963,8 +976,8 @@
       <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>69</v>
+      <c r="F10" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -980,7 +993,7 @@
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>25</v>
@@ -991,8 +1004,8 @@
       <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>69</v>
+      <c r="F12" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1008,54 +1021,54 @@
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="15" t="s">
-        <v>69</v>
+      <c r="F14" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>69</v>
+      <c r="F16" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1072,14 +1085,14 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="22" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,19 +1100,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>69</v>
+      <c r="F21" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1125,7 +1138,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>38</v>
@@ -1136,8 +1149,8 @@
       <c r="E24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>69</v>
+      <c r="F24" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1164,8 +1177,8 @@
       <c r="E26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>69</v>
+      <c r="F26" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1179,14 +1192,14 @@
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="22" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="20"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1194,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>46</v>
@@ -1206,7 +1219,7 @@
         <v>47</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1221,8 +1234,8 @@
       <c r="E31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>69</v>
+      <c r="F31" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1249,7 +1262,7 @@
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>66</v>
@@ -1260,8 +1273,8 @@
       <c r="E34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>69</v>
+      <c r="F34" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1288,8 +1301,8 @@
       <c r="E36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>69</v>
+      <c r="F36" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1305,7 +1318,7 @@
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>60</v>
@@ -1316,8 +1329,8 @@
       <c r="E38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>69</v>
+      <c r="F38" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1343,14 +1356,14 @@
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="20"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2312,6 +2325,22 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{F4CE1BFC-BADD-0A44-8471-421ED919A894}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{C78A4F8A-0243-B047-97E7-2AFD2E374204}"/>
+    <hyperlink ref="F9" r:id="rId3" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{56D11423-2149-AE47-9AA6-76B93ACC2299}"/>
+    <hyperlink ref="F12" r:id="rId4" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{F66D5A0B-0BEA-174A-B9A9-651000B863EA}"/>
+    <hyperlink ref="F10" r:id="rId5" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{2BDA3863-CC8C-5D4F-ADB1-8424108FC7FE}"/>
+    <hyperlink ref="F14" r:id="rId6" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{F4F41729-B512-DF42-9650-916F290F59B9}"/>
+    <hyperlink ref="F16" r:id="rId7" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{B1E35831-289D-ED47-A71D-FBFFECE3DBD0}"/>
+    <hyperlink ref="F21" r:id="rId8" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{9A95E560-FB32-E94A-B01B-2A0E9259FBF5}"/>
+    <hyperlink ref="F24" r:id="rId9" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{7C4BA191-6F83-5345-AF3E-2E0108ECC72A}"/>
+    <hyperlink ref="F26" r:id="rId10" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{C754BC95-24F8-B64A-8052-69AD55523477}"/>
+    <hyperlink ref="F31" r:id="rId11" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{A0C9722A-895F-5844-A9B5-599DF661B7E6}"/>
+    <hyperlink ref="F34" r:id="rId12" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{949A384D-760D-4049-9D6B-6C11FE4E9697}"/>
+    <hyperlink ref="F36" r:id="rId13" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{6A3B4AF9-D5D5-A24E-8BE3-8E24BC521324}"/>
+    <hyperlink ref="F38" r:id="rId14" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{D444BB4F-1A3E-8742-A465-0CC7492D6834}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elmouctarsow/Desktop/Projet4ameliore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0F65FC-AEBF-F646-84B5-DCBC7A3ABD59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA445F3-5E3C-1549-B604-1D7E69641FCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>Categorie</t>
   </si>
@@ -145,15 +145,6 @@
     <t xml:space="preserve">Visualisé les liens </t>
   </si>
   <si>
-    <t>Chaque identifiant HTML n'est utilisé qu'une seule fois par page</t>
-  </si>
-  <si>
-    <t>Éviter les erreurs de restitiution du contenu ou d'interaction via les scripts</t>
-  </si>
-  <si>
-    <t>Limiter les risques d'interprétation hasardeuse du Document Object Model (DOM) par des agents utilisateurs différents.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manque d'accessibilité </t>
   </si>
   <si>
@@ -187,21 +178,9 @@
     <t xml:space="preserve">Minifier le code CSS </t>
   </si>
   <si>
-    <t>Le site propose un fichier sitemap indiquant les contenus à explorer</t>
-  </si>
-  <si>
-    <t>Améliorer la prise en compte des contenus par les moteurs de recherche et outils d'indexation.</t>
-  </si>
-  <si>
     <t>Diminuer l'impact énergétique lié à la consultation du site</t>
   </si>
   <si>
-    <t xml:space="preserve">La non pris en compte du contenu du site par les moteurs de recherche le ralenti. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer un fichier sitemap.xml contenant la liste des pages du site à la racine du site. À defaut de respecter le format XML, une simple liste d'URL est acceptée par les moteurs. </t>
-  </si>
-  <si>
     <t>Accélère la viteese d'affichage des pages</t>
   </si>
   <si>
@@ -268,9 +247,6 @@
     <t xml:space="preserve">Les liens ne sont pas dotés d'un intitulé dans le code source. </t>
   </si>
   <si>
-    <t>Visuellement les liens ne sont pas différenciés du reste du contenu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Les images ne sont pas optimisées, elles sont lourdes, avec une grande taille. Elles empêchent le site de se charger vite. </t>
   </si>
   <si>
@@ -284,6 +260,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://checklists.opquast.com/fr/qualiteweb/ </t>
+  </si>
+  <si>
+    <t>Visuellement les liens ne sont pas différenciés du reste du contenu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site n'est pas responsive, ce qui pourrait diminuer son accessibilité. </t>
+  </si>
+  <si>
+    <t>Proposer des mécanismes d'adaptation</t>
+  </si>
+  <si>
+    <t>Facilite sa consultation</t>
   </si>
 </sst>
 </file>
@@ -294,12 +282,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -327,6 +309,13 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -342,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -414,40 +403,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -539,56 +498,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -807,563 +759,553 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="77.7109375" customWidth="1"/>
     <col min="3" max="5" width="45.7109375" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="6" t="s">
+      <c r="C21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="6" t="s">
+      <c r="C30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="6" t="s">
+      <c r="C34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="6" t="s">
+      <c r="C37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="3" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="C38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="15"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2338,8 +2280,7 @@
     <hyperlink ref="F26" r:id="rId10" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{C754BC95-24F8-B64A-8052-69AD55523477}"/>
     <hyperlink ref="F31" r:id="rId11" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{A0C9722A-895F-5844-A9B5-599DF661B7E6}"/>
     <hyperlink ref="F34" r:id="rId12" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{949A384D-760D-4049-9D6B-6C11FE4E9697}"/>
-    <hyperlink ref="F36" r:id="rId13" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{6A3B4AF9-D5D5-A24E-8BE3-8E24BC521324}"/>
-    <hyperlink ref="F38" r:id="rId14" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{D444BB4F-1A3E-8742-A465-0CC7492D6834}"/>
+    <hyperlink ref="F37" r:id="rId13" display="https://checklists.opquast.com/fr/qualiteweb/" xr:uid="{D444BB4F-1A3E-8742-A465-0CC7492D6834}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
